--- a/data/sheet/msg_8715.xlsx
+++ b/data/sheet/msg_8715.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="63">
   <si>
     <t/>
   </si>
@@ -166,6 +166,61 @@
   </si>
   <si>
     <t>2022-03-15 22:28:19</t>
+  </si>
+  <si>
+    <t>2022-10-24 13:44:04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7: 1955
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7: 4750
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7: 5019
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7: 25202
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7: 40336
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7: 6803
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7: 40337
+</t>
+  </si>
+  <si>
+    <t>2022-10-24 13:44:05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7: 65458
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7: 4423
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7: 6341
+</t>
+  </si>
+  <si>
+    <t>2022-10-24 13:45:04</t>
+  </si>
+  <si>
+    <t>2022-10-27 22:40:05</t>
+  </si>
+  <si>
+    <t>2022-10-27 22:44:05</t>
   </si>
 </sst>
 </file>
@@ -518,7 +573,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1329,6 +1384,106 @@
         <v>0.0</v>
       </c>
     </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>48</v>
+      </c>
+      <c r="B41" t="s">
+        <v>0</v>
+      </c>
+      <c r="C41" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" t="n">
+        <v>1.666611851E9</v>
+      </c>
+      <c r="E41" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>56</v>
+      </c>
+      <c r="B42" t="s">
+        <v>0</v>
+      </c>
+      <c r="C42" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" t="n">
+        <v>1.666611852E9</v>
+      </c>
+      <c r="E42" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F42" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>60</v>
+      </c>
+      <c r="B43" t="s">
+        <v>0</v>
+      </c>
+      <c r="C43" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" t="n">
+        <v>1.666611911E9</v>
+      </c>
+      <c r="E43" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>61</v>
+      </c>
+      <c r="B44" t="s">
+        <v>0</v>
+      </c>
+      <c r="C44" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" t="n">
+        <v>1.666903215E9</v>
+      </c>
+      <c r="E44" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>62</v>
+      </c>
+      <c r="B45" t="s">
+        <v>0</v>
+      </c>
+      <c r="C45" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45" t="n">
+        <v>1.666903456E9</v>
+      </c>
+      <c r="E45" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F45" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1336,7 +1491,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H107"/>
+  <dimension ref="A1:H156"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4130,6 +4285,1280 @@
         <v>49.0</v>
       </c>
     </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>48</v>
+      </c>
+      <c r="B108" t="s">
+        <v>49</v>
+      </c>
+      <c r="C108" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D108" t="n">
+        <v>16527.0</v>
+      </c>
+      <c r="E108" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="F108" t="n">
+        <v>1.666604802E9</v>
+      </c>
+      <c r="G108" t="n">
+        <v>1.666605214E9</v>
+      </c>
+      <c r="H108" t="n">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>48</v>
+      </c>
+      <c r="B109" t="s">
+        <v>0</v>
+      </c>
+      <c r="C109" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D109" t="n">
+        <v>16531.0</v>
+      </c>
+      <c r="E109" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="F109" t="n">
+        <v>1.666604863E9</v>
+      </c>
+      <c r="G109" t="n">
+        <v>1.666605214E9</v>
+      </c>
+      <c r="H109" t="n">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>48</v>
+      </c>
+      <c r="B110" t="s">
+        <v>50</v>
+      </c>
+      <c r="C110" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D110" t="n">
+        <v>16529.0</v>
+      </c>
+      <c r="E110" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="F110" t="n">
+        <v>1.666604803E9</v>
+      </c>
+      <c r="G110" t="n">
+        <v>1.666605214E9</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>48</v>
+      </c>
+      <c r="B111" t="s">
+        <v>51</v>
+      </c>
+      <c r="C111" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D111" t="n">
+        <v>16456.0</v>
+      </c>
+      <c r="E111" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="F111" t="n">
+        <v>1.666604921E9</v>
+      </c>
+      <c r="G111" t="n">
+        <v>1.666605334E9</v>
+      </c>
+      <c r="H111" t="n">
+        <v>6973.0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>48</v>
+      </c>
+      <c r="B112" t="s">
+        <v>52</v>
+      </c>
+      <c r="C112" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D112" t="n">
+        <v>36866.0</v>
+      </c>
+      <c r="E112" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="F112" t="n">
+        <v>1.666608546E9</v>
+      </c>
+      <c r="G112" t="n">
+        <v>1.666651746E9</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>48</v>
+      </c>
+      <c r="B113" t="s">
+        <v>53</v>
+      </c>
+      <c r="C113" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D113" t="n">
+        <v>32770.0</v>
+      </c>
+      <c r="E113" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F113" t="n">
+        <v>1.666609122E9</v>
+      </c>
+      <c r="G113" t="n">
+        <v>1.666609122E9</v>
+      </c>
+      <c r="H113" t="n">
+        <v>65535.0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>48</v>
+      </c>
+      <c r="B114" t="s">
+        <v>0</v>
+      </c>
+      <c r="C114" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D114" t="n">
+        <v>32769.0</v>
+      </c>
+      <c r="E114" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F114" t="n">
+        <v>1.666589192E9</v>
+      </c>
+      <c r="G114" t="n">
+        <v>1.666589192E9</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>48</v>
+      </c>
+      <c r="B115" t="s">
+        <v>49</v>
+      </c>
+      <c r="C115" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D115" t="n">
+        <v>16527.0</v>
+      </c>
+      <c r="E115" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="F115" t="n">
+        <v>1.666604802E9</v>
+      </c>
+      <c r="G115" t="n">
+        <v>1.666605214E9</v>
+      </c>
+      <c r="H115" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>48</v>
+      </c>
+      <c r="B116" t="s">
+        <v>0</v>
+      </c>
+      <c r="C116" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D116" t="n">
+        <v>16531.0</v>
+      </c>
+      <c r="E116" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="F116" t="n">
+        <v>1.666604862E9</v>
+      </c>
+      <c r="G116" t="n">
+        <v>1.666605214E9</v>
+      </c>
+      <c r="H116" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>48</v>
+      </c>
+      <c r="B117" t="s">
+        <v>54</v>
+      </c>
+      <c r="C117" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D117" t="n">
+        <v>16533.0</v>
+      </c>
+      <c r="E117" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="F117" t="n">
+        <v>1.666604801E9</v>
+      </c>
+      <c r="G117" t="n">
+        <v>1.666605214E9</v>
+      </c>
+      <c r="H117" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>48</v>
+      </c>
+      <c r="B118" t="s">
+        <v>50</v>
+      </c>
+      <c r="C118" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D118" t="n">
+        <v>16529.0</v>
+      </c>
+      <c r="E118" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="F118" t="n">
+        <v>1.666604802E9</v>
+      </c>
+      <c r="G118" t="n">
+        <v>1.666605214E9</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>48</v>
+      </c>
+      <c r="B119" t="s">
+        <v>52</v>
+      </c>
+      <c r="C119" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D119" t="n">
+        <v>36866.0</v>
+      </c>
+      <c r="E119" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="F119" t="n">
+        <v>1.666608547E9</v>
+      </c>
+      <c r="G119" t="n">
+        <v>1.666651747E9</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>48</v>
+      </c>
+      <c r="B120" t="s">
+        <v>55</v>
+      </c>
+      <c r="C120" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D120" t="n">
+        <v>32770.0</v>
+      </c>
+      <c r="E120" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="F120" t="n">
+        <v>1.666609123E9</v>
+      </c>
+      <c r="G120" t="n">
+        <v>1.666609123E9</v>
+      </c>
+      <c r="H120" t="n">
+        <v>65535.0</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>48</v>
+      </c>
+      <c r="B121" t="s">
+        <v>0</v>
+      </c>
+      <c r="C121" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D121" t="n">
+        <v>32769.0</v>
+      </c>
+      <c r="E121" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F121" t="n">
+        <v>1.666589155E9</v>
+      </c>
+      <c r="G121" t="n">
+        <v>1.666589155E9</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>48</v>
+      </c>
+      <c r="B122" t="s">
+        <v>49</v>
+      </c>
+      <c r="C122" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D122" t="n">
+        <v>16527.0</v>
+      </c>
+      <c r="E122" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="F122" t="n">
+        <v>1.666604802E9</v>
+      </c>
+      <c r="G122" t="n">
+        <v>1.666605214E9</v>
+      </c>
+      <c r="H122" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>48</v>
+      </c>
+      <c r="B123" t="s">
+        <v>0</v>
+      </c>
+      <c r="C123" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D123" t="n">
+        <v>16531.0</v>
+      </c>
+      <c r="E123" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="F123" t="n">
+        <v>1.666604863E9</v>
+      </c>
+      <c r="G123" t="n">
+        <v>1.666605214E9</v>
+      </c>
+      <c r="H123" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>48</v>
+      </c>
+      <c r="B124" t="s">
+        <v>50</v>
+      </c>
+      <c r="C124" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D124" t="n">
+        <v>16529.0</v>
+      </c>
+      <c r="E124" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="F124" t="n">
+        <v>1.666604803E9</v>
+      </c>
+      <c r="G124" t="n">
+        <v>1.666605214E9</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>48</v>
+      </c>
+      <c r="B125" t="s">
+        <v>51</v>
+      </c>
+      <c r="C125" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D125" t="n">
+        <v>16456.0</v>
+      </c>
+      <c r="E125" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="F125" t="n">
+        <v>1.666604922E9</v>
+      </c>
+      <c r="G125" t="n">
+        <v>1.666605334E9</v>
+      </c>
+      <c r="H125" t="n">
+        <v>6999.0</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>48</v>
+      </c>
+      <c r="B126" t="s">
+        <v>52</v>
+      </c>
+      <c r="C126" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D126" t="n">
+        <v>36866.0</v>
+      </c>
+      <c r="E126" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="F126" t="n">
+        <v>1.666608547E9</v>
+      </c>
+      <c r="G126" t="n">
+        <v>1.666651747E9</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>48</v>
+      </c>
+      <c r="B127" t="s">
+        <v>53</v>
+      </c>
+      <c r="C127" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D127" t="n">
+        <v>32770.0</v>
+      </c>
+      <c r="E127" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="F127" t="n">
+        <v>1.666609124E9</v>
+      </c>
+      <c r="G127" t="n">
+        <v>1.666609124E9</v>
+      </c>
+      <c r="H127" t="n">
+        <v>65535.0</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>56</v>
+      </c>
+      <c r="B128" t="s">
+        <v>0</v>
+      </c>
+      <c r="C128" t="n">
+        <v>-2.145376735E9</v>
+      </c>
+      <c r="D128" t="n">
+        <v>32769.0</v>
+      </c>
+      <c r="E128" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F128" t="n">
+        <v>1.666589232E9</v>
+      </c>
+      <c r="G128" t="n">
+        <v>1.666589232E9</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>56</v>
+      </c>
+      <c r="B129" t="s">
+        <v>57</v>
+      </c>
+      <c r="C129" t="n">
+        <v>-2.145376735E9</v>
+      </c>
+      <c r="D129" t="n">
+        <v>32815.0</v>
+      </c>
+      <c r="E129" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F129" t="n">
+        <v>1.6666048E9</v>
+      </c>
+      <c r="G129" t="n">
+        <v>1.6666048E9</v>
+      </c>
+      <c r="H129" t="n">
+        <v>981.0</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>56</v>
+      </c>
+      <c r="B130" t="s">
+        <v>49</v>
+      </c>
+      <c r="C130" t="n">
+        <v>-2.145376735E9</v>
+      </c>
+      <c r="D130" t="n">
+        <v>16527.0</v>
+      </c>
+      <c r="E130" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="F130" t="n">
+        <v>1.666604802E9</v>
+      </c>
+      <c r="G130" t="n">
+        <v>1.666605214E9</v>
+      </c>
+      <c r="H130" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>56</v>
+      </c>
+      <c r="B131" t="s">
+        <v>0</v>
+      </c>
+      <c r="C131" t="n">
+        <v>-2.145376735E9</v>
+      </c>
+      <c r="D131" t="n">
+        <v>16531.0</v>
+      </c>
+      <c r="E131" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="F131" t="n">
+        <v>1.666604862E9</v>
+      </c>
+      <c r="G131" t="n">
+        <v>1.666605214E9</v>
+      </c>
+      <c r="H131" t="n">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>56</v>
+      </c>
+      <c r="B132" t="s">
+        <v>50</v>
+      </c>
+      <c r="C132" t="n">
+        <v>-2.145376735E9</v>
+      </c>
+      <c r="D132" t="n">
+        <v>16529.0</v>
+      </c>
+      <c r="E132" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="F132" t="n">
+        <v>1.666604803E9</v>
+      </c>
+      <c r="G132" t="n">
+        <v>1.666605214E9</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>56</v>
+      </c>
+      <c r="B133" t="s">
+        <v>51</v>
+      </c>
+      <c r="C133" t="n">
+        <v>-2.145376735E9</v>
+      </c>
+      <c r="D133" t="n">
+        <v>16456.0</v>
+      </c>
+      <c r="E133" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="F133" t="n">
+        <v>1.666604921E9</v>
+      </c>
+      <c r="G133" t="n">
+        <v>1.666605334E9</v>
+      </c>
+      <c r="H133" t="n">
+        <v>6973.0</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>56</v>
+      </c>
+      <c r="B134" t="s">
+        <v>52</v>
+      </c>
+      <c r="C134" t="n">
+        <v>-2.145376735E9</v>
+      </c>
+      <c r="D134" t="n">
+        <v>36866.0</v>
+      </c>
+      <c r="E134" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="F134" t="n">
+        <v>1.666608547E9</v>
+      </c>
+      <c r="G134" t="n">
+        <v>1.666651747E9</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>56</v>
+      </c>
+      <c r="B135" t="s">
+        <v>53</v>
+      </c>
+      <c r="C135" t="n">
+        <v>-2.145376735E9</v>
+      </c>
+      <c r="D135" t="n">
+        <v>32770.0</v>
+      </c>
+      <c r="E135" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F135" t="n">
+        <v>1.666609124E9</v>
+      </c>
+      <c r="G135" t="n">
+        <v>1.666609124E9</v>
+      </c>
+      <c r="H135" t="n">
+        <v>65535.0</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>56</v>
+      </c>
+      <c r="B136" t="s">
+        <v>0</v>
+      </c>
+      <c r="C136" t="n">
+        <v>-2.145376224E9</v>
+      </c>
+      <c r="D136" t="n">
+        <v>32769.0</v>
+      </c>
+      <c r="E136" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F136" t="n">
+        <v>1.666589161E9</v>
+      </c>
+      <c r="G136" t="n">
+        <v>1.666589161E9</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>56</v>
+      </c>
+      <c r="B137" t="s">
+        <v>49</v>
+      </c>
+      <c r="C137" t="n">
+        <v>-2.145376224E9</v>
+      </c>
+      <c r="D137" t="n">
+        <v>16527.0</v>
+      </c>
+      <c r="E137" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="F137" t="n">
+        <v>1.666604802E9</v>
+      </c>
+      <c r="G137" t="n">
+        <v>1.666605214E9</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>56</v>
+      </c>
+      <c r="B138" t="s">
+        <v>0</v>
+      </c>
+      <c r="C138" t="n">
+        <v>-2.145376224E9</v>
+      </c>
+      <c r="D138" t="n">
+        <v>16531.0</v>
+      </c>
+      <c r="E138" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="F138" t="n">
+        <v>1.666604862E9</v>
+      </c>
+      <c r="G138" t="n">
+        <v>1.666605214E9</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>56</v>
+      </c>
+      <c r="B139" t="s">
+        <v>54</v>
+      </c>
+      <c r="C139" t="n">
+        <v>-2.145376224E9</v>
+      </c>
+      <c r="D139" t="n">
+        <v>16533.0</v>
+      </c>
+      <c r="E139" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="F139" t="n">
+        <v>1.666604801E9</v>
+      </c>
+      <c r="G139" t="n">
+        <v>1.666605214E9</v>
+      </c>
+      <c r="H139" t="n">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>56</v>
+      </c>
+      <c r="B140" t="s">
+        <v>50</v>
+      </c>
+      <c r="C140" t="n">
+        <v>-2.145376224E9</v>
+      </c>
+      <c r="D140" t="n">
+        <v>16529.0</v>
+      </c>
+      <c r="E140" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="F140" t="n">
+        <v>1.666604802E9</v>
+      </c>
+      <c r="G140" t="n">
+        <v>1.666605214E9</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>56</v>
+      </c>
+      <c r="B141" t="s">
+        <v>52</v>
+      </c>
+      <c r="C141" t="n">
+        <v>-2.145376224E9</v>
+      </c>
+      <c r="D141" t="n">
+        <v>36866.0</v>
+      </c>
+      <c r="E141" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="F141" t="n">
+        <v>1.666608548E9</v>
+      </c>
+      <c r="G141" t="n">
+        <v>1.666651748E9</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>56</v>
+      </c>
+      <c r="B142" t="s">
+        <v>53</v>
+      </c>
+      <c r="C142" t="n">
+        <v>-2.145376224E9</v>
+      </c>
+      <c r="D142" t="n">
+        <v>32770.0</v>
+      </c>
+      <c r="E142" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="F142" t="n">
+        <v>1.666609125E9</v>
+      </c>
+      <c r="G142" t="n">
+        <v>1.666609125E9</v>
+      </c>
+      <c r="H142" t="n">
+        <v>65535.0</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s">
+        <v>56</v>
+      </c>
+      <c r="B143" t="s">
+        <v>0</v>
+      </c>
+      <c r="C143" t="n">
+        <v>-2.145374071E9</v>
+      </c>
+      <c r="D143" t="n">
+        <v>32769.0</v>
+      </c>
+      <c r="E143" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F143" t="n">
+        <v>1.666589216E9</v>
+      </c>
+      <c r="G143" t="n">
+        <v>1.666589216E9</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>56</v>
+      </c>
+      <c r="B144" t="s">
+        <v>58</v>
+      </c>
+      <c r="C144" t="n">
+        <v>-2.145374071E9</v>
+      </c>
+      <c r="D144" t="n">
+        <v>32781.0</v>
+      </c>
+      <c r="E144" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F144" t="n">
+        <v>1.6666048E9</v>
+      </c>
+      <c r="G144" t="n">
+        <v>1.6666048E9</v>
+      </c>
+      <c r="H144" t="n">
+        <v>363.0</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>56</v>
+      </c>
+      <c r="B145" t="s">
+        <v>49</v>
+      </c>
+      <c r="C145" t="n">
+        <v>-2.145374071E9</v>
+      </c>
+      <c r="D145" t="n">
+        <v>16527.0</v>
+      </c>
+      <c r="E145" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="F145" t="n">
+        <v>1.666604801E9</v>
+      </c>
+      <c r="G145" t="n">
+        <v>1.666605213E9</v>
+      </c>
+      <c r="H145" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>56</v>
+      </c>
+      <c r="B146" t="s">
+        <v>0</v>
+      </c>
+      <c r="C146" t="n">
+        <v>-2.145374071E9</v>
+      </c>
+      <c r="D146" t="n">
+        <v>16531.0</v>
+      </c>
+      <c r="E146" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="F146" t="n">
+        <v>1.666604861E9</v>
+      </c>
+      <c r="G146" t="n">
+        <v>1.666605213E9</v>
+      </c>
+      <c r="H146" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>56</v>
+      </c>
+      <c r="B147" t="s">
+        <v>59</v>
+      </c>
+      <c r="C147" t="n">
+        <v>-2.145374071E9</v>
+      </c>
+      <c r="D147" t="n">
+        <v>16533.0</v>
+      </c>
+      <c r="E147" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="F147" t="n">
+        <v>1.6666048E9</v>
+      </c>
+      <c r="G147" t="n">
+        <v>1.666605213E9</v>
+      </c>
+      <c r="H147" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>60</v>
+      </c>
+      <c r="B148" t="s">
+        <v>0</v>
+      </c>
+      <c r="C148" t="n">
+        <v>1.914857367E9</v>
+      </c>
+      <c r="D148" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E148" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="F148" t="n">
+        <v>1.666611822E9</v>
+      </c>
+      <c r="G148" t="n">
+        <v>1.666611833E9</v>
+      </c>
+      <c r="H148" t="n">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>61</v>
+      </c>
+      <c r="B149" t="s">
+        <v>0</v>
+      </c>
+      <c r="C149" t="n">
+        <v>1.914857367E9</v>
+      </c>
+      <c r="D149" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E149" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F149" t="n">
+        <v>1.66690278E9</v>
+      </c>
+      <c r="G149" t="n">
+        <v>1.66690293E9</v>
+      </c>
+      <c r="H149" t="n">
+        <v>150.0</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s">
+        <v>61</v>
+      </c>
+      <c r="B150" t="s">
+        <v>0</v>
+      </c>
+      <c r="C150" t="n">
+        <v>1.914857367E9</v>
+      </c>
+      <c r="D150" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E150" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="F150" t="n">
+        <v>1.666903125E9</v>
+      </c>
+      <c r="G150" t="n">
+        <v>1.666903154E9</v>
+      </c>
+      <c r="H150" t="n">
+        <v>29.0</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s">
+        <v>62</v>
+      </c>
+      <c r="B151" t="s">
+        <v>0</v>
+      </c>
+      <c r="C151" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D151" t="n">
+        <v>130.0</v>
+      </c>
+      <c r="E151" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F151" t="n">
+        <v>1.666903455E9</v>
+      </c>
+      <c r="G151" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s">
+        <v>62</v>
+      </c>
+      <c r="B152" t="s">
+        <v>0</v>
+      </c>
+      <c r="C152" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D152" t="n">
+        <v>130.0</v>
+      </c>
+      <c r="E152" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F152" t="n">
+        <v>1.666903455E9</v>
+      </c>
+      <c r="G152" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s">
+        <v>62</v>
+      </c>
+      <c r="B153" t="s">
+        <v>0</v>
+      </c>
+      <c r="C153" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D153" t="n">
+        <v>130.0</v>
+      </c>
+      <c r="E153" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F153" t="n">
+        <v>1.666903455E9</v>
+      </c>
+      <c r="G153" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s">
+        <v>62</v>
+      </c>
+      <c r="B154" t="s">
+        <v>0</v>
+      </c>
+      <c r="C154" t="n">
+        <v>-2.145376735E9</v>
+      </c>
+      <c r="D154" t="n">
+        <v>130.0</v>
+      </c>
+      <c r="E154" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F154" t="n">
+        <v>1.666903455E9</v>
+      </c>
+      <c r="G154" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s">
+        <v>62</v>
+      </c>
+      <c r="B155" t="s">
+        <v>0</v>
+      </c>
+      <c r="C155" t="n">
+        <v>-2.145376224E9</v>
+      </c>
+      <c r="D155" t="n">
+        <v>130.0</v>
+      </c>
+      <c r="E155" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F155" t="n">
+        <v>1.666903455E9</v>
+      </c>
+      <c r="G155" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s">
+        <v>62</v>
+      </c>
+      <c r="B156" t="s">
+        <v>0</v>
+      </c>
+      <c r="C156" t="n">
+        <v>-2.145374071E9</v>
+      </c>
+      <c r="D156" t="n">
+        <v>130.0</v>
+      </c>
+      <c r="E156" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F156" t="n">
+        <v>1.666903455E9</v>
+      </c>
+      <c r="G156" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
